--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\common\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 24 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 25 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -165,6 +165,9 @@
     <t>Ålder_70_79</t>
   </si>
   <si>
+    <t>Ålder_80_89</t>
+  </si>
+  <si>
     <t>Ålder_90_plus</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
   </si>
   <si>
     <t>Data uppdateras dagligen kl 11.30 och finns tillgägliga dagligen kl 14.00. Läs mer på https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/</t>
-  </si>
-  <si>
-    <t>Ålder_80_89</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4705,7 +4705,7 @@
         <v>43923</v>
       </c>
       <c r="B60" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
@@ -4741,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="N60" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O60" s="2">
         <v>34</v>
@@ -4776,7 +4776,7 @@
         <v>43924</v>
       </c>
       <c r="B61" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -4812,7 +4812,7 @@
         <v>24</v>
       </c>
       <c r="N61" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O61" s="2">
         <v>59</v>
@@ -6054,7 +6054,7 @@
         <v>43942</v>
       </c>
       <c r="B79" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C79" s="2">
         <v>4</v>
@@ -6108,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="T79" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U79" s="2">
         <v>123</v>
@@ -6196,7 +6196,7 @@
         <v>43944</v>
       </c>
       <c r="B81" s="2">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -6205,40 +6205,40 @@
         <v>42</v>
       </c>
       <c r="E81" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" s="2">
         <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="2">
         <v>8</v>
       </c>
       <c r="I81" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J81" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K81" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L81" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M81" s="2">
         <v>22</v>
       </c>
       <c r="N81" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O81" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P81" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q81" s="2">
         <v>3</v>
@@ -6253,7 +6253,7 @@
         <v>26</v>
       </c>
       <c r="U81" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V81" s="2">
         <v>38</v>
@@ -6267,70 +6267,141 @@
         <v>43945</v>
       </c>
       <c r="B82" s="2">
-        <v>294</v>
+        <v>767</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2">
+        <v>6</v>
+      </c>
+      <c r="H82" s="2">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2">
+        <v>24</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>2</v>
+      </c>
+      <c r="L82" s="2">
+        <v>8</v>
+      </c>
+      <c r="M82" s="2">
+        <v>38</v>
+      </c>
+      <c r="N82" s="2">
+        <v>221</v>
+      </c>
+      <c r="O82" s="2">
+        <v>53</v>
+      </c>
+      <c r="P82" s="2">
+        <v>59</v>
+      </c>
+      <c r="Q82" s="2">
         <v>4</v>
       </c>
-      <c r="H82" s="2">
-        <v>8</v>
-      </c>
-      <c r="I82" s="2">
-        <v>5</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2">
-        <v>0</v>
-      </c>
-      <c r="N82" s="2">
+      <c r="R82" s="2">
+        <v>12</v>
+      </c>
+      <c r="S82" s="2">
+        <v>16</v>
+      </c>
+      <c r="T82" s="2">
+        <v>36</v>
+      </c>
+      <c r="U82" s="2">
+        <v>147</v>
+      </c>
+      <c r="V82" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B83" s="2">
         <v>105</v>
       </c>
-      <c r="O82" s="2">
-        <v>30</v>
-      </c>
-      <c r="P82" s="2">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>62</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
         <v>4</v>
       </c>
-      <c r="Q82" s="2">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2">
-        <v>7</v>
-      </c>
-      <c r="S82" s="2">
-        <v>1</v>
-      </c>
-      <c r="T82" s="2">
-        <v>0</v>
-      </c>
-      <c r="U82" s="2">
-        <v>86</v>
-      </c>
-      <c r="V82" s="2">
-        <v>26</v>
-      </c>
-      <c r="W82" s="2">
-        <v>13</v>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>16</v>
+      </c>
+      <c r="V83" s="2">
+        <v>21</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -6617,7 +6688,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6633,7 +6704,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6641,7 +6712,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6657,7 +6728,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6665,7 +6736,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6673,7 +6744,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6689,7 +6760,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6697,7 +6768,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6705,7 +6776,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6713,7 +6784,7 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6721,7 +6792,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6731,9 +6802,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -6910,7 +6981,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6950,7 +7021,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6958,7 +7029,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7006,7 +7077,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7062,7 +7133,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7078,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7118,7 +7189,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7126,7 +7197,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7134,7 +7205,7 @@
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7142,7 +7213,15 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>9</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7180,10 +7259,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
-        <v>35.086399078369141</v>
+        <v>39.472198486328125</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7197,10 +7276,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="C3" s="2">
-        <v>212.52508544921875</v>
+        <v>222.24845886230469</v>
       </c>
       <c r="D3" s="2">
         <v>35</v>
@@ -7214,10 +7293,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>36.859565734863281</v>
+        <v>41.885868072509766</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -7231,16 +7310,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C5" s="2">
-        <v>165.28523254394531</v>
+        <v>170.85273742675781</v>
       </c>
       <c r="D5" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7248,13 +7327,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2">
-        <v>89.262176513671875</v>
+        <v>89.861251831054688</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>29</v>
@@ -7265,10 +7344,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2">
-        <v>199.52603149414063</v>
+        <v>201.81942749023438</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -7282,13 +7361,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="C8" s="2">
-        <v>174.91796875</v>
+        <v>181.79368591308594</v>
       </c>
       <c r="D8" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>51</v>
@@ -7299,13 +7378,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2">
-        <v>55.816757202148438</v>
+        <v>56.631599426269531</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -7316,16 +7395,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2">
-        <v>113.16877746582031</v>
+        <v>118.13231658935547</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7333,10 +7412,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2">
-        <v>87.167572021484375</v>
+        <v>92.365638732910156</v>
       </c>
       <c r="D11" s="2">
         <v>25</v>
@@ -7350,16 +7429,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="C12" s="2">
-        <v>43.9822998046875</v>
+        <v>46.740264892578125</v>
       </c>
       <c r="D12" s="2">
         <v>56</v>
       </c>
       <c r="E12" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7367,16 +7446,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6967</v>
+        <v>7148</v>
       </c>
       <c r="C13" s="2">
-        <v>293.09054565429688</v>
+        <v>300.70492553710938</v>
       </c>
       <c r="D13" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="E13" s="2">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7384,10 +7463,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="C14" s="2">
-        <v>355.24636840820313</v>
+        <v>363.3125</v>
       </c>
       <c r="D14" s="2">
         <v>83</v>
@@ -7401,16 +7480,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>802</v>
+        <v>862</v>
       </c>
       <c r="C15" s="2">
-        <v>209.0103759765625</v>
+        <v>224.64706420898438</v>
       </c>
       <c r="D15" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7418,10 +7497,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2">
-        <v>44.615352630615234</v>
+        <v>46.031711578369141</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -7435,10 +7514,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C17" s="2">
-        <v>100.46515655517578</v>
+        <v>103.77719879150391</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
@@ -7452,16 +7531,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2">
-        <v>71.327545166015625</v>
+        <v>77.441337585449219</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7469,16 +7548,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="C19" s="2">
-        <v>226.57652282714844</v>
+        <v>239.26480102539063</v>
       </c>
       <c r="D19" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7486,16 +7565,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1886</v>
+        <v>1965</v>
       </c>
       <c r="C20" s="2">
-        <v>109.27751922607422</v>
+        <v>113.85489654541016</v>
       </c>
       <c r="D20" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7503,16 +7582,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="C21" s="2">
-        <v>263.11904907226563</v>
+        <v>274.92987060546875</v>
       </c>
       <c r="D21" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7520,16 +7599,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1305</v>
+        <v>1325</v>
       </c>
       <c r="C22" s="2">
-        <v>280.34674072265625</v>
+        <v>284.64321899414063</v>
       </c>
       <c r="D22" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7564,13 +7643,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>7997</v>
+        <v>8237</v>
       </c>
       <c r="C2" s="2">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="D2" s="2">
-        <v>1213</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7578,13 +7657,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>9566</v>
+        <v>9936</v>
       </c>
       <c r="C3" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D3" s="2">
-        <v>939</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7610,9 +7689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7635,7 +7712,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7649,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -7663,13 +7740,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1308</v>
+        <v>1370</v>
       </c>
       <c r="C4" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7677,7 +7754,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1744</v>
+        <v>1813</v>
       </c>
       <c r="C5" s="2">
         <v>57</v>
@@ -7691,10 +7768,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2273</v>
+        <v>2370</v>
       </c>
       <c r="C6" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2">
         <v>24</v>
@@ -7705,13 +7782,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3074</v>
+        <v>3175</v>
       </c>
       <c r="C7" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D7" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7719,10 +7796,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2336</v>
+        <v>2409</v>
       </c>
       <c r="C8" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D8" s="2">
         <v>171</v>
@@ -7733,41 +7810,41 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2310</v>
+        <v>2372</v>
       </c>
       <c r="C9" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2763</v>
+        <v>2834</v>
       </c>
       <c r="C10" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
-        <v>853</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1443</v>
+        <v>1507</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7799,12 +7876,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="7005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 25 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 27 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -5202,7 +5204,7 @@
         <v>43930</v>
       </c>
       <c r="B67" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -5256,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="T67" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U67" s="2">
         <v>116</v>
@@ -6267,7 +6269,7 @@
         <v>43945</v>
       </c>
       <c r="B82" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C82" s="2">
         <v>7</v>
@@ -6279,10 +6281,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" s="2">
         <v>11</v>
@@ -6303,13 +6305,13 @@
         <v>38</v>
       </c>
       <c r="N82" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O82" s="2">
         <v>53</v>
       </c>
       <c r="P82" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q82" s="2">
         <v>4</v>
@@ -6338,70 +6340,212 @@
         <v>43946</v>
       </c>
       <c r="B83" s="2">
-        <v>105</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I83" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L83" s="2">
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N83" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O83" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P83" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q83" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R83" s="2">
+        <v>6</v>
+      </c>
+      <c r="S83" s="2">
+        <v>5</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>94</v>
+      </c>
+      <c r="V83" s="2">
+        <v>37</v>
+      </c>
+      <c r="W83" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B84" s="2">
+        <v>254</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
         <v>4</v>
       </c>
-      <c r="S83" s="2">
-        <v>0</v>
-      </c>
-      <c r="T83" s="2">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2">
-        <v>16</v>
-      </c>
-      <c r="V83" s="2">
-        <v>21</v>
-      </c>
-      <c r="W83" s="2">
-        <v>0</v>
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>5</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2">
+        <v>4</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>22</v>
+      </c>
+      <c r="N84" s="2">
+        <v>98</v>
+      </c>
+      <c r="O84" s="2">
+        <v>3</v>
+      </c>
+      <c r="P84" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1</v>
+      </c>
+      <c r="R84" s="2">
+        <v>8</v>
+      </c>
+      <c r="S84" s="2">
+        <v>11</v>
+      </c>
+      <c r="T84" s="2">
+        <v>19</v>
+      </c>
+      <c r="U84" s="2">
+        <v>41</v>
+      </c>
+      <c r="V84" s="2">
+        <v>17</v>
+      </c>
+      <c r="W84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B85" s="2">
+        <v>122</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="2">
+        <v>3</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2">
+        <v>52</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>4</v>
+      </c>
+      <c r="T85" s="2">
+        <v>22</v>
+      </c>
+      <c r="U85" s="2">
+        <v>17</v>
+      </c>
+      <c r="V85" s="2">
+        <v>6</v>
+      </c>
+      <c r="W85" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6411,13 +6555,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6624,7 +6771,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6680,7 +6827,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6720,7 +6867,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6736,7 +6883,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6744,7 +6891,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6752,7 +6899,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6760,7 +6907,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6768,7 +6915,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6776,7 +6923,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6784,15 +6931,39 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B47" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B48" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="2">
-        <v>20</v>
+      <c r="B50" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6802,9 +6973,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7021,7 +7194,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7077,7 +7250,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7133,7 +7306,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7141,7 +7314,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7157,7 +7330,7 @@
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7181,7 +7354,7 @@
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7189,7 +7362,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7197,7 +7370,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7213,7 +7386,7 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7221,7 +7394,23 @@
         <v>43946</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B53" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7259,10 +7448,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>39.472198486328125</v>
+        <v>40.098743438720703</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7276,16 +7465,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="C3" s="2">
-        <v>222.24845886230469</v>
+        <v>239.26435852050781</v>
       </c>
       <c r="D3" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7293,10 +7482,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
-        <v>41.885868072509766</v>
+        <v>46.912174224853516</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -7310,16 +7499,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="C5" s="2">
-        <v>170.85273742675781</v>
+        <v>180.94383239746094</v>
       </c>
       <c r="D5" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7327,16 +7516,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C6" s="2">
-        <v>89.861251831054688</v>
+        <v>91.358940124511719</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7344,10 +7533,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C7" s="2">
-        <v>201.81942749023438</v>
+        <v>214.81538391113281</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -7361,16 +7550,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="C8" s="2">
-        <v>181.79368591308594</v>
+        <v>187.56927490234375</v>
       </c>
       <c r="D8" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7378,10 +7567,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2">
-        <v>56.631599426269531</v>
+        <v>59.483551025390625</v>
       </c>
       <c r="D9" s="2">
         <v>17</v>
@@ -7395,16 +7584,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2">
-        <v>118.13231658935547</v>
+        <v>130.54116821289063</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7412,16 +7601,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2">
-        <v>92.365638732910156</v>
+        <v>93.16534423828125</v>
       </c>
       <c r="D11" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7429,16 +7618,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="C12" s="2">
-        <v>46.740264892578125</v>
+        <v>49.280498504638672</v>
       </c>
       <c r="D12" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7446,16 +7635,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7148</v>
+        <v>7378</v>
       </c>
       <c r="C13" s="2">
-        <v>300.70492553710938</v>
+        <v>310.38067626953125</v>
       </c>
       <c r="D13" s="2">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E13" s="2">
-        <v>1208</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7463,16 +7652,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="C14" s="2">
-        <v>363.3125</v>
+        <v>367.00949096679688</v>
       </c>
       <c r="D14" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7480,16 +7669,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="C15" s="2">
-        <v>224.64706420898438</v>
+        <v>229.85929870605469</v>
       </c>
       <c r="D15" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7497,16 +7686,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2">
-        <v>46.031711578369141</v>
+        <v>48.156253814697266</v>
       </c>
       <c r="D16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7514,16 +7703,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C17" s="2">
-        <v>103.77719879150391</v>
+        <v>107.82524108886719</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7531,16 +7720,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2">
-        <v>77.441337585449219</v>
+        <v>85.593055725097656</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7548,13 +7737,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="C19" s="2">
-        <v>239.26480102539063</v>
+        <v>254.49075317382813</v>
       </c>
       <c r="D19" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <v>78</v>
@@ -7565,16 +7754,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1965</v>
+        <v>2101</v>
       </c>
       <c r="C20" s="2">
-        <v>113.85489654541016</v>
+        <v>121.73493194580078</v>
       </c>
       <c r="D20" s="2">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E20" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7582,16 +7771,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="C21" s="2">
-        <v>274.92987060546875</v>
+        <v>287.72494506835938</v>
       </c>
       <c r="D21" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7599,13 +7788,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1325</v>
+        <v>1365</v>
       </c>
       <c r="C22" s="2">
-        <v>284.64321899414063</v>
+        <v>293.23623657226563</v>
       </c>
       <c r="D22" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2">
         <v>91</v>
@@ -7643,13 +7832,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>8237</v>
+        <v>8568</v>
       </c>
       <c r="C2" s="2">
-        <v>947</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="2">
-        <v>1236</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7657,13 +7846,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>9936</v>
+        <v>10354</v>
       </c>
       <c r="C3" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2">
-        <v>956</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7712,7 +7901,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7726,7 +7915,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -7740,10 +7929,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1370</v>
+        <v>1425</v>
       </c>
       <c r="C4" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -7754,10 +7943,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1813</v>
+        <v>1884</v>
       </c>
       <c r="C5" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
@@ -7768,13 +7957,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2370</v>
+        <v>2469</v>
       </c>
       <c r="C6" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7782,13 +7971,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3175</v>
+        <v>3314</v>
       </c>
       <c r="C7" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D7" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7796,13 +7985,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2409</v>
+        <v>2507</v>
       </c>
       <c r="C8" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="D8" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7810,13 +7999,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2372</v>
+        <v>2462</v>
       </c>
       <c r="C9" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D9" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7824,13 +8013,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2834</v>
+        <v>2955</v>
       </c>
       <c r="C10" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>869</v>
+        <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7838,13 +8027,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1507</v>
+        <v>1569</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\common\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 27 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM  1 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -4373,7 +4373,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -4415,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="W55" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4494,7 +4494,7 @@
         <v>43920</v>
       </c>
       <c r="B57" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>5</v>
       </c>
       <c r="N57" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="2">
         <v>60</v>
@@ -5133,7 +5133,7 @@
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>68</v>
       </c>
       <c r="V66" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W66" s="2">
         <v>57</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="S67" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" s="2">
         <v>25</v>
@@ -5275,7 +5275,7 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -5308,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="M68" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N68" s="2">
         <v>148</v>
@@ -5346,7 +5346,7 @@
         <v>43932</v>
       </c>
       <c r="B69" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
@@ -5417,7 +5417,7 @@
         <v>43933</v>
       </c>
       <c r="B70" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>18</v>
       </c>
       <c r="U70" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V70" s="2">
         <v>75</v>
@@ -5559,7 +5559,7 @@
         <v>43935</v>
       </c>
       <c r="B72" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -5595,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="N72" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O72" s="2">
         <v>16</v>
@@ -5985,7 +5985,7 @@
         <v>43941</v>
       </c>
       <c r="B78" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>9</v>
       </c>
       <c r="N78" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O78" s="2">
         <v>14</v>
@@ -6056,7 +6056,7 @@
         <v>43942</v>
       </c>
       <c r="B79" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C79" s="2">
         <v>4</v>
@@ -6110,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="T79" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U79" s="2">
         <v>123</v>
@@ -6127,7 +6127,7 @@
         <v>43943</v>
       </c>
       <c r="B80" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
@@ -6145,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="H80" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" s="2">
         <v>31</v>
@@ -6163,13 +6163,13 @@
         <v>20</v>
       </c>
       <c r="N80" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O80" s="2">
         <v>50</v>
       </c>
       <c r="P80" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q80" s="2">
         <v>5</v>
@@ -6198,7 +6198,7 @@
         <v>43944</v>
       </c>
       <c r="B81" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -6213,7 +6213,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H81" s="2">
         <v>8</v>
@@ -6255,7 +6255,7 @@
         <v>26</v>
       </c>
       <c r="U81" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V81" s="2">
         <v>38</v>
@@ -6284,10 +6284,10 @@
         <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I82" s="2">
         <v>24</v>
@@ -6305,13 +6305,13 @@
         <v>38</v>
       </c>
       <c r="N82" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O82" s="2">
         <v>53</v>
       </c>
       <c r="P82" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q82" s="2">
         <v>4</v>
@@ -6323,7 +6323,7 @@
         <v>16</v>
       </c>
       <c r="T82" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U82" s="2">
         <v>147</v>
@@ -6340,7 +6340,7 @@
         <v>43946</v>
       </c>
       <c r="B83" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -6376,13 +6376,13 @@
         <v>12</v>
       </c>
       <c r="N83" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O83" s="2">
         <v>8</v>
       </c>
       <c r="P83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q83" s="2">
         <v>5</v>
@@ -6411,28 +6411,28 @@
         <v>43947</v>
       </c>
       <c r="B84" s="2">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
       </c>
       <c r="D84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="2">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
         <v>5</v>
-      </c>
-      <c r="G84" s="2">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -6444,37 +6444,37 @@
         <v>2</v>
       </c>
       <c r="M84" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N84" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="O84" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P84" s="2">
         <v>8</v>
       </c>
       <c r="Q84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R84" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S84" s="2">
         <v>11</v>
       </c>
       <c r="T84" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="U84" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="V84" s="2">
         <v>17</v>
       </c>
       <c r="W84" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6482,70 +6482,354 @@
         <v>43948</v>
       </c>
       <c r="B85" s="2">
-        <v>122</v>
+        <v>542</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2">
+        <v>14</v>
+      </c>
+      <c r="H85" s="2">
+        <v>6</v>
+      </c>
+      <c r="I85" s="2">
+        <v>23</v>
+      </c>
+      <c r="J85" s="2">
+        <v>7</v>
+      </c>
+      <c r="K85" s="2">
+        <v>7</v>
+      </c>
+      <c r="L85" s="2">
+        <v>10</v>
+      </c>
+      <c r="M85" s="2">
+        <v>34</v>
+      </c>
+      <c r="N85" s="2">
+        <v>196</v>
+      </c>
+      <c r="O85" s="2">
+        <v>10</v>
+      </c>
+      <c r="P85" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>8</v>
+      </c>
+      <c r="R85" s="2">
+        <v>4</v>
+      </c>
+      <c r="S85" s="2">
+        <v>11</v>
+      </c>
+      <c r="T85" s="2">
+        <v>24</v>
+      </c>
+      <c r="U85" s="2">
+        <v>99</v>
+      </c>
+      <c r="V85" s="2">
+        <v>18</v>
+      </c>
+      <c r="W85" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B86" s="2">
+        <v>749</v>
+      </c>
+      <c r="C86" s="2">
         <v>3</v>
       </c>
-      <c r="H85" s="2">
+      <c r="D86" s="2">
+        <v>35</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2">
+        <v>34</v>
+      </c>
+      <c r="H86" s="2">
+        <v>11</v>
+      </c>
+      <c r="I86" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2">
+        <v>21</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>33</v>
+      </c>
+      <c r="N86" s="2">
+        <v>222</v>
+      </c>
+      <c r="O86" s="2">
+        <v>58</v>
+      </c>
+      <c r="P86" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>17</v>
+      </c>
+      <c r="R86" s="2">
         <v>3</v>
       </c>
-      <c r="I85" s="2">
-        <v>2</v>
-      </c>
-      <c r="J85" s="2">
+      <c r="S86" s="2">
         <v>4</v>
       </c>
-      <c r="K85" s="2">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2">
-        <v>1</v>
-      </c>
-      <c r="N85" s="2">
+      <c r="T86" s="2">
+        <v>21</v>
+      </c>
+      <c r="U86" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B87" s="2">
+        <v>778</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
         <v>52</v>
       </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0</v>
-      </c>
-      <c r="R85" s="2">
-        <v>1</v>
-      </c>
-      <c r="S85" s="2">
-        <v>4</v>
-      </c>
-      <c r="T85" s="2">
+      <c r="E87" s="2">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2">
+        <v>10</v>
+      </c>
+      <c r="H87" s="2">
+        <v>18</v>
+      </c>
+      <c r="I87" s="2">
+        <v>43</v>
+      </c>
+      <c r="J87" s="2">
+        <v>11</v>
+      </c>
+      <c r="K87" s="2">
+        <v>14</v>
+      </c>
+      <c r="L87" s="2">
+        <v>7</v>
+      </c>
+      <c r="M87" s="2">
+        <v>37</v>
+      </c>
+      <c r="N87" s="2">
+        <v>228</v>
+      </c>
+      <c r="O87" s="2">
+        <v>34</v>
+      </c>
+      <c r="P87" s="2">
         <v>22</v>
       </c>
-      <c r="U85" s="2">
+      <c r="Q87" s="2">
+        <v>14</v>
+      </c>
+      <c r="R87" s="2">
+        <v>18</v>
+      </c>
+      <c r="S87" s="2">
+        <v>11</v>
+      </c>
+      <c r="T87" s="2">
+        <v>24</v>
+      </c>
+      <c r="U87" s="2">
+        <v>149</v>
+      </c>
+      <c r="V87" s="2">
+        <v>34</v>
+      </c>
+      <c r="W87" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B88" s="2">
+        <v>547</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>21</v>
+      </c>
+      <c r="G88" s="2">
+        <v>8</v>
+      </c>
+      <c r="H88" s="2">
+        <v>20</v>
+      </c>
+      <c r="I88" s="2">
+        <v>19</v>
+      </c>
+      <c r="J88" s="2">
+        <v>7</v>
+      </c>
+      <c r="K88" s="2">
+        <v>7</v>
+      </c>
+      <c r="L88" s="2">
+        <v>9</v>
+      </c>
+      <c r="M88" s="2">
+        <v>27</v>
+      </c>
+      <c r="N88" s="2">
+        <v>170</v>
+      </c>
+      <c r="O88" s="2">
+        <v>23</v>
+      </c>
+      <c r="P88" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>8</v>
+      </c>
+      <c r="R88" s="2">
+        <v>5</v>
+      </c>
+      <c r="S88" s="2">
+        <v>19</v>
+      </c>
+      <c r="T88" s="2">
+        <v>14</v>
+      </c>
+      <c r="U88" s="2">
+        <v>95</v>
+      </c>
+      <c r="V88" s="2">
+        <v>39</v>
+      </c>
+      <c r="W88" s="2">
         <v>17</v>
       </c>
-      <c r="V85" s="2">
-        <v>6</v>
-      </c>
-      <c r="W85" s="2">
-        <v>6</v>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B89" s="2">
+        <v>64</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>52</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6555,16 +6839,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B50" sqref="B2:B50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6683,7 +6964,7 @@
         <v>43914</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6691,7 +6972,7 @@
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6723,7 +7004,7 @@
         <v>43919</v>
       </c>
       <c r="B20" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6731,7 +7012,7 @@
         <v>43920</v>
       </c>
       <c r="B21" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6739,7 +7020,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6755,7 +7036,7 @@
         <v>43923</v>
       </c>
       <c r="B24" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6771,7 +7052,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6787,7 +7068,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6795,7 +7076,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6803,7 +7084,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6811,7 +7092,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6819,7 +7100,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6827,7 +7108,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6835,7 +7116,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6843,7 +7124,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6851,7 +7132,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6859,7 +7140,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6875,7 +7156,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6883,7 +7164,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6891,7 +7172,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6899,7 +7180,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6907,7 +7188,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6915,7 +7196,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6923,7 +7204,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6931,7 +7212,7 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6939,7 +7220,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6947,7 +7228,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6955,15 +7236,39 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B50" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B51" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B52" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="2">
-        <v>21</v>
+      <c r="B53" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6973,13 +7278,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7106,7 +7409,7 @@
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7114,7 +7417,7 @@
         <v>43911</v>
       </c>
       <c r="B17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7122,7 +7425,7 @@
         <v>43912</v>
       </c>
       <c r="B18" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7130,7 +7433,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7138,7 +7441,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7146,7 +7449,7 @@
         <v>43915</v>
       </c>
       <c r="B21" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7162,7 +7465,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7170,7 +7473,7 @@
         <v>43918</v>
       </c>
       <c r="B24" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7178,7 +7481,7 @@
         <v>43919</v>
       </c>
       <c r="B25" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7186,7 +7489,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7194,7 +7497,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7202,7 +7505,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7210,7 +7513,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7218,7 +7521,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7226,7 +7529,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7234,7 +7537,7 @@
         <v>43926</v>
       </c>
       <c r="B32" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7242,7 +7545,7 @@
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7250,7 +7553,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7258,7 +7561,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7266,7 +7569,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7282,7 +7585,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7290,7 +7593,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7306,7 +7609,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7322,7 +7625,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7330,7 +7633,7 @@
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7346,7 +7649,7 @@
         <v>43940</v>
       </c>
       <c r="B46" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7362,7 +7665,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7370,7 +7673,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7378,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7386,7 +7689,7 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7394,7 +7697,7 @@
         <v>43946</v>
       </c>
       <c r="B52" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7402,7 +7705,7 @@
         <v>43947</v>
       </c>
       <c r="B53" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7410,6 +7713,38 @@
         <v>43948</v>
       </c>
       <c r="B54" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B55" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B56" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B57" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B58" s="2">
         <v>2</v>
       </c>
     </row>
@@ -7422,9 +7757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7448,10 +7785,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
-        <v>40.098743438720703</v>
+        <v>45.737628936767578</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7465,16 +7802,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>689</v>
+        <v>798</v>
       </c>
       <c r="C3" s="2">
-        <v>239.26435852050781</v>
+        <v>277.11605834960938</v>
       </c>
       <c r="D3" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7482,16 +7819,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>46.912174224853516</v>
+        <v>77.069999694824219</v>
       </c>
       <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
         <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7499,16 +7836,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="C5" s="2">
-        <v>180.94383239746094</v>
+        <v>208.78134155273438</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7516,16 +7853,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="C6" s="2">
-        <v>91.358940124511719</v>
+        <v>111.12841796875</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7533,13 +7870,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C7" s="2">
-        <v>214.81538391113281</v>
+        <v>253.03875732421875</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
@@ -7550,16 +7887,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>682</v>
+        <v>789</v>
       </c>
       <c r="C8" s="2">
-        <v>187.56927490234375</v>
+        <v>216.99729919433594</v>
       </c>
       <c r="D8" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7567,16 +7904,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2">
-        <v>59.483551025390625</v>
+        <v>70.076515197753906</v>
       </c>
       <c r="D9" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7584,16 +7921,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C10" s="2">
-        <v>130.54116821289063</v>
+        <v>154.86253356933594</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7601,16 +7938,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2">
-        <v>93.16534423828125</v>
+        <v>103.96132659912109</v>
       </c>
       <c r="D11" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7618,16 +7955,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>679</v>
+        <v>809</v>
       </c>
       <c r="C12" s="2">
-        <v>49.280498504638672</v>
+        <v>58.715644836425781</v>
       </c>
       <c r="D12" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7635,16 +7972,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7378</v>
+        <v>8205</v>
       </c>
       <c r="C13" s="2">
-        <v>310.38067626953125</v>
+        <v>345.17123413085938</v>
       </c>
       <c r="D13" s="2">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="E13" s="2">
-        <v>1237</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7652,16 +7989,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1092</v>
+        <v>1222</v>
       </c>
       <c r="C14" s="2">
-        <v>367.00949096679688</v>
+        <v>410.70108032226563</v>
       </c>
       <c r="D14" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7669,16 +8006,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>882</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="2">
-        <v>229.85929870605469</v>
+        <v>263.73876953125</v>
       </c>
       <c r="D15" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7686,16 +8023,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2">
-        <v>48.156253814697266</v>
+        <v>65.152580261230469</v>
       </c>
       <c r="D16" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7703,16 +8040,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="C17" s="2">
-        <v>107.82524108886719</v>
+        <v>119.96938323974609</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7720,16 +8057,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C18" s="2">
-        <v>85.593055725097656</v>
+        <v>102.711669921875</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7737,16 +8074,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>702</v>
+        <v>768</v>
       </c>
       <c r="C19" s="2">
-        <v>254.49075317382813</v>
+        <v>278.417236328125</v>
       </c>
       <c r="D19" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7754,16 +8091,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2101</v>
+        <v>2512</v>
       </c>
       <c r="C20" s="2">
-        <v>121.73493194580078</v>
+        <v>145.54885864257813</v>
       </c>
       <c r="D20" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7771,16 +8108,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>877</v>
+        <v>1035</v>
       </c>
       <c r="C21" s="2">
-        <v>287.72494506835938</v>
+        <v>339.56137084960938</v>
       </c>
       <c r="D21" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7788,16 +8125,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1365</v>
+        <v>1443</v>
       </c>
       <c r="C22" s="2">
-        <v>293.23623657226563</v>
+        <v>309.99258422851563</v>
       </c>
       <c r="D22" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7809,9 +8146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7832,13 +8171,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>8568</v>
+        <v>9509</v>
       </c>
       <c r="C2" s="2">
-        <v>1002</v>
+        <v>1135</v>
       </c>
       <c r="D2" s="2">
-        <v>1283</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7846,13 +8185,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>10354</v>
+        <v>12008</v>
       </c>
       <c r="C3" s="2">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="D3" s="2">
-        <v>991</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7860,7 +8199,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7878,9 +8217,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7901,10 +8242,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -7915,10 +8256,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -7929,13 +8270,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1425</v>
+        <v>1665</v>
       </c>
       <c r="C4" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7943,13 +8284,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1884</v>
+        <v>2256</v>
       </c>
       <c r="C5" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7957,10 +8298,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2469</v>
+        <v>2883</v>
       </c>
       <c r="C6" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
@@ -7971,13 +8312,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3314</v>
+        <v>3794</v>
       </c>
       <c r="C7" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="D7" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7985,13 +8326,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2507</v>
+        <v>2781</v>
       </c>
       <c r="C8" s="2">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="D8" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7999,13 +8340,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2462</v>
+        <v>2709</v>
       </c>
       <c r="C9" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8013,13 +8354,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2955</v>
+        <v>3314</v>
       </c>
       <c r="C10" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
-        <v>906</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8027,13 +8368,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1569</v>
+        <v>1759</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>546</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8061,7 +8402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\common\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\Common\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="11670" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM  1 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM  9 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -221,10 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,13 +506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -4716,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
         <v>17</v>
@@ -4743,7 +4747,7 @@
         <v>8</v>
       </c>
       <c r="N60" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O60" s="2">
         <v>34</v>
@@ -5133,7 +5137,7 @@
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -5193,7 +5197,7 @@
         <v>68</v>
       </c>
       <c r="V66" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" s="2">
         <v>57</v>
@@ -5382,7 +5386,7 @@
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
@@ -5409,7 +5413,7 @@
         <v>13</v>
       </c>
       <c r="W69" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5559,7 +5563,7 @@
         <v>43935</v>
       </c>
       <c r="B72" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -5619,7 +5623,7 @@
         <v>63</v>
       </c>
       <c r="V72" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W72" s="2">
         <v>23</v>
@@ -5985,7 +5989,7 @@
         <v>43941</v>
       </c>
       <c r="B78" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -6021,7 +6025,7 @@
         <v>9</v>
       </c>
       <c r="N78" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O78" s="2">
         <v>14</v>
@@ -6127,7 +6131,7 @@
         <v>43943</v>
       </c>
       <c r="B80" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
@@ -6181,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="T80" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U80" s="2">
         <v>79</v>
@@ -6198,13 +6202,13 @@
         <v>43944</v>
       </c>
       <c r="B81" s="2">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
@@ -6213,7 +6217,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2">
         <v>8</v>
@@ -6269,7 +6273,7 @@
         <v>43945</v>
       </c>
       <c r="B82" s="2">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C82" s="2">
         <v>7</v>
@@ -6284,7 +6288,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H82" s="2">
         <v>10</v>
@@ -6323,7 +6327,7 @@
         <v>16</v>
       </c>
       <c r="T82" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U82" s="2">
         <v>147</v>
@@ -6355,7 +6359,7 @@
         <v>23</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="2">
         <v>13</v>
@@ -6376,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="N83" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O83" s="2">
         <v>8</v>
@@ -6411,7 +6415,7 @@
         <v>43947</v>
       </c>
       <c r="B84" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -6426,7 +6430,7 @@
         <v>6</v>
       </c>
       <c r="G84" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -6482,7 +6486,7 @@
         <v>43948</v>
       </c>
       <c r="B85" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -6497,7 +6501,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H85" s="2">
         <v>6</v>
@@ -6518,7 +6522,7 @@
         <v>34</v>
       </c>
       <c r="N85" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O85" s="2">
         <v>10</v>
@@ -6553,7 +6557,7 @@
         <v>43949</v>
       </c>
       <c r="B86" s="2">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="C86" s="2">
         <v>3</v>
@@ -6568,7 +6572,7 @@
         <v>16</v>
       </c>
       <c r="G86" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H86" s="2">
         <v>11</v>
@@ -6589,7 +6593,7 @@
         <v>33</v>
       </c>
       <c r="N86" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O86" s="2">
         <v>58</v>
@@ -6633,7 +6637,7 @@
         <v>52</v>
       </c>
       <c r="E87" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2">
         <v>21</v>
@@ -6660,7 +6664,7 @@
         <v>37</v>
       </c>
       <c r="N87" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O87" s="2">
         <v>34</v>
@@ -6695,7 +6699,7 @@
         <v>43951</v>
       </c>
       <c r="B88" s="2">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -6704,7 +6708,7 @@
         <v>14</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" s="2">
         <v>21</v>
@@ -6716,31 +6720,31 @@
         <v>20</v>
       </c>
       <c r="I88" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J88" s="2">
         <v>7</v>
       </c>
       <c r="K88" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L88" s="2">
         <v>9</v>
       </c>
       <c r="M88" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N88" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O88" s="2">
         <v>23</v>
       </c>
       <c r="P88" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Q88" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R88" s="2">
         <v>5</v>
@@ -6752,10 +6756,10 @@
         <v>14</v>
       </c>
       <c r="U88" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V88" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W88" s="2">
         <v>17</v>
@@ -6766,70 +6770,638 @@
         <v>43952</v>
       </c>
       <c r="B89" s="2">
+        <v>532</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>21</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2</v>
+      </c>
+      <c r="H89" s="2">
+        <v>7</v>
+      </c>
+      <c r="I89" s="2">
+        <v>23</v>
+      </c>
+      <c r="J89" s="2">
+        <v>7</v>
+      </c>
+      <c r="K89" s="2">
+        <v>15</v>
+      </c>
+      <c r="L89" s="2">
+        <v>7</v>
+      </c>
+      <c r="M89" s="2">
+        <v>12</v>
+      </c>
+      <c r="N89" s="2">
+        <v>141</v>
+      </c>
+      <c r="O89" s="2">
+        <v>55</v>
+      </c>
+      <c r="P89" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>13</v>
+      </c>
+      <c r="R89" s="2">
+        <v>2</v>
+      </c>
+      <c r="S89" s="2">
+        <v>9</v>
+      </c>
+      <c r="T89" s="2">
+        <v>20</v>
+      </c>
+      <c r="U89" s="2">
+        <v>123</v>
+      </c>
+      <c r="V89" s="2">
+        <v>34</v>
+      </c>
+      <c r="W89" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B90" s="2">
+        <v>298</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>14</v>
+      </c>
+      <c r="G90" s="2">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2">
+        <v>13</v>
+      </c>
+      <c r="I90" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" s="2">
+        <v>2</v>
+      </c>
+      <c r="K90" s="2">
+        <v>12</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <v>28</v>
+      </c>
+      <c r="N90" s="2">
+        <v>80</v>
+      </c>
+      <c r="O90" s="2">
+        <v>7</v>
+      </c>
+      <c r="P90" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>6</v>
+      </c>
+      <c r="R90" s="2">
+        <v>3</v>
+      </c>
+      <c r="S90" s="2">
+        <v>7</v>
+      </c>
+      <c r="T90" s="2">
+        <v>13</v>
+      </c>
+      <c r="U90" s="2">
+        <v>33</v>
+      </c>
+      <c r="V90" s="2">
+        <v>20</v>
+      </c>
+      <c r="W90" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B91" s="2">
+        <v>258</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2</v>
+      </c>
+      <c r="H91" s="2">
+        <v>6</v>
+      </c>
+      <c r="I91" s="2">
+        <v>7</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <v>10</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
+        <v>6</v>
+      </c>
+      <c r="N91" s="2">
+        <v>124</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>3</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>6</v>
+      </c>
+      <c r="T91" s="2">
+        <v>4</v>
+      </c>
+      <c r="U91" s="2">
+        <v>42</v>
+      </c>
+      <c r="V91" s="2">
+        <v>14</v>
+      </c>
+      <c r="W91" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B92" s="2">
+        <v>459</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
         <v>64</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="E92" s="2">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2">
+        <v>23</v>
+      </c>
+      <c r="G92" s="2">
         <v>11</v>
       </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2">
-        <v>0</v>
-      </c>
-      <c r="N89" s="2">
+      <c r="H92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" s="2">
+        <v>4</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2">
+        <v>38</v>
+      </c>
+      <c r="N92" s="2">
+        <v>129</v>
+      </c>
+      <c r="O92" s="2">
+        <v>3</v>
+      </c>
+      <c r="P92" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>6</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
+        <v>4</v>
+      </c>
+      <c r="T92" s="2">
+        <v>8</v>
+      </c>
+      <c r="U92" s="2">
+        <v>75</v>
+      </c>
+      <c r="V92" s="2">
+        <v>17</v>
+      </c>
+      <c r="W92" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B93" s="2">
+        <v>637</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" s="2">
+        <v>21</v>
+      </c>
+      <c r="H93" s="2">
+        <v>22</v>
+      </c>
+      <c r="I93" s="2">
+        <v>22</v>
+      </c>
+      <c r="J93" s="2">
+        <v>5</v>
+      </c>
+      <c r="K93" s="2">
+        <v>34</v>
+      </c>
+      <c r="L93" s="2">
+        <v>7</v>
+      </c>
+      <c r="M93" s="2">
+        <v>21</v>
+      </c>
+      <c r="N93" s="2">
+        <v>148</v>
+      </c>
+      <c r="O93" s="2">
+        <v>39</v>
+      </c>
+      <c r="P93" s="2">
         <v>52</v>
       </c>
-      <c r="O89" s="2">
-        <v>0</v>
-      </c>
-      <c r="P89" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>0</v>
-      </c>
-      <c r="R89" s="2">
-        <v>1</v>
-      </c>
-      <c r="S89" s="2">
-        <v>0</v>
-      </c>
-      <c r="T89" s="2">
-        <v>0</v>
-      </c>
-      <c r="U89" s="2">
-        <v>0</v>
-      </c>
-      <c r="V89" s="2">
-        <v>0</v>
-      </c>
-      <c r="W89" s="2">
-        <v>0</v>
+      <c r="Q93" s="2">
+        <v>17</v>
+      </c>
+      <c r="R93" s="2">
+        <v>3</v>
+      </c>
+      <c r="S93" s="2">
+        <v>4</v>
+      </c>
+      <c r="T93" s="2">
+        <v>17</v>
+      </c>
+      <c r="U93" s="2">
+        <v>110</v>
+      </c>
+      <c r="V93" s="2">
+        <v>49</v>
+      </c>
+      <c r="W93" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B94" s="2">
+        <v>730</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>22</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>23</v>
+      </c>
+      <c r="G94" s="2">
+        <v>23</v>
+      </c>
+      <c r="H94" s="2">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2">
+        <v>24</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3</v>
+      </c>
+      <c r="K94" s="2">
+        <v>22</v>
+      </c>
+      <c r="L94" s="2">
+        <v>8</v>
+      </c>
+      <c r="M94" s="2">
+        <v>42</v>
+      </c>
+      <c r="N94" s="2">
+        <v>190</v>
+      </c>
+      <c r="O94" s="2">
+        <v>34</v>
+      </c>
+      <c r="P94" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>14</v>
+      </c>
+      <c r="R94" s="2">
+        <v>8</v>
+      </c>
+      <c r="S94" s="2">
+        <v>17</v>
+      </c>
+      <c r="T94" s="2">
+        <v>19</v>
+      </c>
+      <c r="U94" s="2">
+        <v>177</v>
+      </c>
+      <c r="V94" s="2">
+        <v>35</v>
+      </c>
+      <c r="W94" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B95" s="2">
+        <v>751</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>19</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>36</v>
+      </c>
+      <c r="G95" s="2">
+        <v>15</v>
+      </c>
+      <c r="H95" s="2">
+        <v>18</v>
+      </c>
+      <c r="I95" s="2">
+        <v>28</v>
+      </c>
+      <c r="J95" s="2">
+        <v>8</v>
+      </c>
+      <c r="K95" s="2">
+        <v>34</v>
+      </c>
+      <c r="L95" s="2">
+        <v>5</v>
+      </c>
+      <c r="M95" s="2">
+        <v>13</v>
+      </c>
+      <c r="N95" s="2">
+        <v>234</v>
+      </c>
+      <c r="O95" s="2">
+        <v>20</v>
+      </c>
+      <c r="P95" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>9</v>
+      </c>
+      <c r="R95" s="2">
+        <v>8</v>
+      </c>
+      <c r="S95" s="2">
+        <v>25</v>
+      </c>
+      <c r="T95" s="2">
+        <v>17</v>
+      </c>
+      <c r="U95" s="2">
+        <v>163</v>
+      </c>
+      <c r="V95" s="2">
+        <v>37</v>
+      </c>
+      <c r="W95" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B96" s="2">
+        <v>597</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>15</v>
+      </c>
+      <c r="H96" s="2">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2">
+        <v>24</v>
+      </c>
+      <c r="J96" s="2">
+        <v>5</v>
+      </c>
+      <c r="K96" s="2">
+        <v>15</v>
+      </c>
+      <c r="L96" s="2">
+        <v>4</v>
+      </c>
+      <c r="M96" s="2">
+        <v>50</v>
+      </c>
+      <c r="N96" s="2">
+        <v>199</v>
+      </c>
+      <c r="O96" s="2">
+        <v>21</v>
+      </c>
+      <c r="P96" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>8</v>
+      </c>
+      <c r="R96" s="2">
+        <v>5</v>
+      </c>
+      <c r="S96" s="2">
+        <v>10</v>
+      </c>
+      <c r="T96" s="2">
+        <v>21</v>
+      </c>
+      <c r="U96" s="2">
+        <v>112</v>
+      </c>
+      <c r="V96" s="2">
+        <v>28</v>
+      </c>
+      <c r="W96" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B97" s="2">
+        <v>149</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2">
+        <v>3</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>5</v>
+      </c>
+      <c r="N97" s="2">
+        <v>58</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>2</v>
+      </c>
+      <c r="R97" s="2">
+        <v>2</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0</v>
+      </c>
+      <c r="U97" s="2">
+        <v>30</v>
+      </c>
+      <c r="V97" s="2">
+        <v>6</v>
+      </c>
+      <c r="W97" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6839,13 +7411,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6948,7 +7523,7 @@
         <v>43912</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7052,7 +7627,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7076,7 +7651,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7084,7 +7659,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7108,7 +7683,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7116,7 +7691,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7140,7 +7715,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7148,7 +7723,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7156,7 +7731,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7164,7 +7739,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7172,7 +7747,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7180,7 +7755,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7188,7 +7763,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7196,7 +7771,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7204,7 +7779,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7212,7 +7787,7 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7220,7 +7795,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7228,7 +7803,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7236,7 +7811,7 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7244,7 +7819,7 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7252,7 +7827,7 @@
         <v>43950</v>
       </c>
       <c r="B51" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7260,15 +7835,87 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B53" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B54" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B55" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B56" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B58" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B59" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="2">
-        <v>10</v>
+      <c r="B62" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7278,11 +7925,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7293,7 +7945,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>43896</v>
       </c>
       <c r="B2" s="2">
@@ -7301,7 +7953,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>43897</v>
       </c>
       <c r="B3" s="2">
@@ -7309,7 +7961,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>43898</v>
       </c>
       <c r="B4" s="2">
@@ -7317,7 +7969,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>43899</v>
       </c>
       <c r="B5" s="2">
@@ -7325,7 +7977,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>43900</v>
       </c>
       <c r="B6" s="2">
@@ -7333,7 +7985,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>43901</v>
       </c>
       <c r="B7" s="2">
@@ -7341,7 +7993,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>43902</v>
       </c>
       <c r="B8" s="2">
@@ -7349,7 +8001,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>43903</v>
       </c>
       <c r="B9" s="2">
@@ -7357,15 +8009,15 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>43904</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>43905</v>
       </c>
       <c r="B11" s="2">
@@ -7373,7 +8025,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>43906</v>
       </c>
       <c r="B12" s="2">
@@ -7381,7 +8033,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>43907</v>
       </c>
       <c r="B13" s="2">
@@ -7389,7 +8041,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>43908</v>
       </c>
       <c r="B14" s="2">
@@ -7397,7 +8049,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>43909</v>
       </c>
       <c r="B15" s="2">
@@ -7405,15 +8057,15 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>43911</v>
       </c>
       <c r="B17" s="2">
@@ -7421,23 +8073,23 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>43912</v>
       </c>
       <c r="B18" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>43914</v>
       </c>
       <c r="B20" s="2">
@@ -7445,15 +8097,15 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>43915</v>
       </c>
       <c r="B21" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>43916</v>
       </c>
       <c r="B22" s="2">
@@ -7461,7 +8113,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>43917</v>
       </c>
       <c r="B23" s="2">
@@ -7469,7 +8121,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>43918</v>
       </c>
       <c r="B24" s="2">
@@ -7477,15 +8129,15 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>43919</v>
       </c>
       <c r="B25" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>43920</v>
       </c>
       <c r="B26" s="2">
@@ -7493,7 +8145,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>43921</v>
       </c>
       <c r="B27" s="2">
@@ -7501,55 +8153,55 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>43926</v>
       </c>
       <c r="B32" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>43928</v>
       </c>
       <c r="B34" s="2">
@@ -7557,7 +8209,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>43929</v>
       </c>
       <c r="B35" s="2">
@@ -7565,7 +8217,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>43930</v>
       </c>
       <c r="B36" s="2">
@@ -7573,7 +8225,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>43931</v>
       </c>
       <c r="B37" s="2">
@@ -7581,39 +8233,39 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>43936</v>
       </c>
       <c r="B42" s="2">
@@ -7621,15 +8273,15 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43938</v>
       </c>
       <c r="B44" s="2">
@@ -7637,7 +8289,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43939</v>
       </c>
       <c r="B45" s="2">
@@ -7645,7 +8297,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>43940</v>
       </c>
       <c r="B46" s="2">
@@ -7653,15 +8305,15 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>43942</v>
       </c>
       <c r="B48" s="2">
@@ -7669,7 +8321,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>43943</v>
       </c>
       <c r="B49" s="2">
@@ -7677,31 +8329,31 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>43946</v>
       </c>
       <c r="B52" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>43947</v>
       </c>
       <c r="B53" s="2">
@@ -7709,7 +8361,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>43948</v>
       </c>
       <c r="B54" s="2">
@@ -7717,35 +8369,91 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>43949</v>
       </c>
       <c r="B55" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B56" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B57" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B58" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B59" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B56" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B60" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2</v>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B61" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B62" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B63" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B64" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7758,10 +8466,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7785,10 +8493,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2">
-        <v>45.737628936767578</v>
+        <v>51.376514434814453</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7802,16 +8510,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>798</v>
+        <v>952</v>
       </c>
       <c r="C3" s="2">
-        <v>277.11605834960938</v>
+        <v>330.59457397460938</v>
       </c>
       <c r="D3" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7819,10 +8527,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2">
-        <v>77.069999694824219</v>
+        <v>105.55239105224609</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -7836,16 +8544,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="C5" s="2">
-        <v>208.78134155273438</v>
+        <v>259.58480834960938</v>
       </c>
       <c r="D5" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7853,16 +8561,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="C6" s="2">
-        <v>111.12841796875</v>
+        <v>140.18356323242188</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7870,16 +8578,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2">
-        <v>253.03875732421875</v>
+        <v>331.01443481445313</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7887,16 +8595,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>789</v>
+        <v>963</v>
       </c>
       <c r="C8" s="2">
-        <v>216.99729919433594</v>
+        <v>264.85220336914063</v>
       </c>
       <c r="D8" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7904,16 +8612,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2">
-        <v>70.076515197753906</v>
+        <v>88.817909240722656</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7921,16 +8629,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>312</v>
+        <v>463</v>
       </c>
       <c r="C10" s="2">
-        <v>154.86253356933594</v>
+        <v>229.81202697753906</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7938,16 +8646,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C11" s="2">
-        <v>103.96132659912109</v>
+        <v>118.75582122802734</v>
       </c>
       <c r="D11" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7955,16 +8663,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>809</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="2">
-        <v>58.715644836425781</v>
+        <v>74.465080261230469</v>
       </c>
       <c r="D12" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7972,16 +8680,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>8205</v>
+        <v>9461</v>
       </c>
       <c r="C13" s="2">
-        <v>345.17123413085938</v>
+        <v>398.0091552734375</v>
       </c>
       <c r="D13" s="2">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="E13" s="2">
-        <v>1417</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7989,16 +8697,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1222</v>
+        <v>1403</v>
       </c>
       <c r="C14" s="2">
-        <v>410.70108032226563</v>
+        <v>471.53323364257813</v>
       </c>
       <c r="D14" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8006,16 +8714,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1012</v>
+        <v>1241</v>
       </c>
       <c r="C15" s="2">
-        <v>263.73876953125</v>
+        <v>323.41879272460938</v>
       </c>
       <c r="D15" s="2">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8023,16 +8731,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="C16" s="2">
-        <v>65.152580261230469</v>
+        <v>93.125694274902344</v>
       </c>
       <c r="D16" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8040,16 +8748,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C17" s="2">
-        <v>119.96938323974609</v>
+        <v>131.37751770019531</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8057,16 +8765,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="C18" s="2">
-        <v>102.711669921875</v>
+        <v>136.13372802734375</v>
       </c>
       <c r="D18" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8074,16 +8782,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>768</v>
+        <v>887</v>
       </c>
       <c r="C19" s="2">
-        <v>278.417236328125</v>
+        <v>321.55740356445313</v>
       </c>
       <c r="D19" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8091,16 +8799,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2512</v>
+        <v>3378</v>
       </c>
       <c r="C20" s="2">
-        <v>145.54885864257813</v>
+        <v>195.72611999511719</v>
       </c>
       <c r="D20" s="2">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="E20" s="2">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8108,16 +8816,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1035</v>
+        <v>1282</v>
       </c>
       <c r="C21" s="2">
-        <v>339.56137084960938</v>
+        <v>420.59677124023438</v>
       </c>
       <c r="D21" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8125,16 +8833,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1443</v>
+        <v>1604</v>
       </c>
       <c r="C22" s="2">
-        <v>309.99258422851563</v>
+        <v>344.57943725585938</v>
       </c>
       <c r="D22" s="2">
         <v>80</v>
       </c>
       <c r="E22" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8147,10 +8855,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8171,13 +8879,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>9509</v>
+        <v>11136</v>
       </c>
       <c r="C2" s="2">
-        <v>1135</v>
+        <v>1263</v>
       </c>
       <c r="D2" s="2">
-        <v>1497</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8185,13 +8893,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>12008</v>
+        <v>14782</v>
       </c>
       <c r="C3" s="2">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="D3" s="2">
-        <v>1156</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8218,10 +8926,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8242,13 +8950,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8256,7 +8964,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -8270,13 +8978,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1665</v>
+        <v>2142</v>
       </c>
       <c r="C4" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8284,13 +8992,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>2256</v>
+        <v>2825</v>
       </c>
       <c r="C5" s="2">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8298,13 +9006,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2883</v>
+        <v>3532</v>
       </c>
       <c r="C6" s="2">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8312,13 +9020,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3794</v>
+        <v>4584</v>
       </c>
       <c r="C7" s="2">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="D7" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8326,13 +9034,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2781</v>
+        <v>3239</v>
       </c>
       <c r="C8" s="2">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="D8" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8340,13 +9048,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2709</v>
+        <v>3147</v>
       </c>
       <c r="C9" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2">
-        <v>606</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8354,13 +9062,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>3314</v>
+        <v>3910</v>
       </c>
       <c r="C10" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>1075</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8368,13 +9076,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1759</v>
+        <v>2125</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>639</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8382,7 +9090,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -8400,9 +9108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
